--- a/Project-S/Assets/Excel/ExcelFile/NpcTable.xlsx
+++ b/Project-S/Assets/Excel/ExcelFile/NpcTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S_ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fork\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39967B28-6B72-431C-9852-FC359BA43729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C393DC-0B65-4CEC-B5A2-1B02990AFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2730" windowWidth="16140" windowHeight="15435" xr2:uid="{2514615A-5E9A-47BD-AF32-4D53C78FA135}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{2514615A-5E9A-47BD-AF32-4D53C78FA135}"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cat1</t>
+    <t>Cat2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
